--- a/Sorption Experiments/RaFHY_pH5/RaFHY_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH5/RaFHY_pH5_NoScript.xlsx
@@ -5,11 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\Radium Sorption\Sorption Experiments\RaFHY_pH5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaFHY_pH5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="11760" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="137">
   <si>
     <t>Parameters</t>
   </si>
@@ -265,21 +266,12 @@
     <t>Known Activity (uCi)</t>
   </si>
   <si>
-    <t>Known-Average</t>
-  </si>
-  <si>
     <t>Gamma Counter Calculated Activity</t>
   </si>
   <si>
     <t>Scint Counter Calculated Activity (Bq)</t>
   </si>
   <si>
-    <t>Squared Actual Activity Variation from Average</t>
-  </si>
-  <si>
-    <t>Error (Bq)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -289,15 +281,6 @@
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
-    <t>Counter CPS-&gt;Activity (Bq)</t>
-  </si>
-  <si>
-    <t>DOES NOT INCLUDE BACKGROUND</t>
-  </si>
-  <si>
-    <t>Activity (Bq) - &gt; Counter CPS</t>
-  </si>
-  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -319,9 +302,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Std dev of residuals</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -385,15 +365,9 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Residual Squared</t>
-  </si>
-  <si>
     <t>Parsons Gamma Counter</t>
   </si>
   <si>
-    <t>Gamma Counter CPS-&gt;Bq</t>
-  </si>
-  <si>
     <t>Solution counts (Bq)</t>
   </si>
   <si>
@@ -542,13 +516,25 @@
   </si>
   <si>
     <t>spH</t>
+  </si>
+  <si>
+    <t>(Known-Average)^2</t>
+  </si>
+  <si>
+    <t>RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock4</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq No background</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,14 +554,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -634,7 +612,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -661,17 +639,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -684,7 +651,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,7 +659,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -701,48 +668,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -752,12 +707,21 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,8 +1005,9 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1094,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>631.52245819489701</v>
+        <v>341.69636021701456</v>
       </c>
       <c r="C6">
-        <v>0.53167165791808602</v>
+        <v>0.1278314405168707</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1142,6 +1107,7 @@
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD161"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1171,11 +1137,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="17">
         <v>42382.73333333333</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>102</v>
+      <c r="B2" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C2">
         <v>97.1</v>
@@ -1191,11 +1157,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>78.400000000000006</v>
@@ -1211,11 +1177,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>74</v>
@@ -1231,11 +1197,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>162.80000000000001</v>
@@ -1251,11 +1217,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>180.5</v>
@@ -1271,11 +1237,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>245.8</v>
@@ -1291,11 +1257,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>336.5</v>
@@ -1311,11 +1277,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>297.60000000000002</v>
@@ -1331,11 +1297,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>299.8</v>
@@ -1351,11 +1317,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>1274.5999999999999</v>
@@ -1371,11 +1337,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>1280</v>
@@ -1391,11 +1357,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>425.4</v>
@@ -1411,11 +1377,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C14">
         <v>2499.1</v>
@@ -1431,11 +1397,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C15">
         <v>2541.6999999999998</v>
@@ -1451,11 +1417,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C16">
         <v>2585.5</v>
@@ -1471,11 +1437,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C17">
         <v>11624.1</v>
@@ -1491,11 +1457,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <v>12578</v>
@@ -1511,11 +1477,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C19">
         <v>12661.5</v>
@@ -1531,11 +1497,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="17">
         <v>42438.435416666667</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C20">
         <v>12486.1</v>
@@ -1551,11 +1517,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="17">
         <v>42438.435416666667</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C21">
         <v>12635.6</v>
@@ -1571,11 +1537,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="17">
         <v>42438.435416666667</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C22">
         <v>13133.1</v>
@@ -1591,11 +1557,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="17">
         <v>42438.435416666667</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C23">
         <v>12855.5</v>
@@ -1611,11 +1577,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="A24" s="17">
         <v>42439.461111111108</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C24">
         <v>12563.7</v>
@@ -1631,11 +1597,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="17">
         <v>42439.461111111108</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C25">
         <v>12617.8</v>
@@ -1651,11 +1617,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="17">
         <v>42439.461111111108</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C26">
         <v>13034.1</v>
@@ -1671,11 +1637,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="17">
         <v>42439.461111111108</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C27">
         <v>12774.6</v>
@@ -1691,11 +1657,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="17">
         <v>42447.404861111114</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C28">
         <v>12786</v>
@@ -1711,11 +1677,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="17">
         <v>42447.404861111114</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C29">
         <v>12495.3</v>
@@ -1731,11 +1697,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="17">
         <v>42447.404861111114</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C30">
         <v>13259.2</v>
@@ -1751,11 +1717,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="17">
         <v>42447.404861111114</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C31">
         <v>12839</v>
@@ -1771,11 +1737,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C32">
         <v>12881.5</v>
@@ -1791,11 +1757,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C33">
         <v>12669.7</v>
@@ -1811,11 +1777,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="A34" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C34">
         <v>13238.8</v>
@@ -1831,11 +1797,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C35">
         <v>12879.8</v>
@@ -1851,11 +1817,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
+      <c r="A36" s="17">
         <v>42339.61041666667</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>102</v>
+      <c r="B36" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C36">
         <v>80.2</v>
@@ -1871,11 +1837,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>73.400000000000006</v>
@@ -1891,11 +1857,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
+      <c r="A38" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C38">
         <v>74</v>
@@ -1911,11 +1877,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C39">
         <v>91.6</v>
@@ -1931,11 +1897,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
+      <c r="A40" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C40">
         <v>95.4</v>
@@ -1951,11 +1917,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+      <c r="A41" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C41">
         <v>109.2</v>
@@ -1971,11 +1937,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
+      <c r="A42" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>134.30000000000001</v>
@@ -1991,11 +1957,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="A43" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C43">
         <v>125.3</v>
@@ -2011,11 +1977,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+      <c r="A44" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>132.30000000000001</v>
@@ -2031,11 +1997,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C45">
         <v>359.5</v>
@@ -2051,11 +2017,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
+      <c r="A46" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C46">
         <v>366.1</v>
@@ -2071,11 +2037,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+      <c r="A47" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C47">
         <v>351.2</v>
@@ -2091,11 +2057,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
+      <c r="A48" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C48">
         <v>681.6</v>
@@ -2111,11 +2077,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
+      <c r="A49" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C49">
         <v>693.6</v>
@@ -2131,11 +2097,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
+      <c r="A50" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C50">
         <v>683.4</v>
@@ -2151,11 +2117,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
+      <c r="A51" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>2950.7</v>
@@ -2171,11 +2137,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
+      <c r="A52" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>3109.3</v>
@@ -2191,11 +2157,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
+      <c r="A53" s="17">
         <v>42339.61041666667</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C53">
         <v>3148.5</v>
@@ -2211,11 +2177,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
+      <c r="A54" s="17">
         <v>42342.499305555553</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>102</v>
+      <c r="B54" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C54">
         <v>88.9</v>
@@ -2231,11 +2197,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
+      <c r="A55" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C55">
         <v>75.3</v>
@@ -2251,11 +2217,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
+      <c r="A56" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C56">
         <v>68.7</v>
@@ -2271,11 +2237,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+      <c r="A57" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C57">
         <v>122.2</v>
@@ -2291,11 +2257,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
+      <c r="A58" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C58">
         <v>125.1</v>
@@ -2311,11 +2277,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
+      <c r="A59" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C59">
         <v>174.6</v>
@@ -2331,11 +2297,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C60">
         <v>217.6</v>
@@ -2351,11 +2317,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+      <c r="A61" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>206.6</v>
@@ -2371,11 +2337,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+      <c r="A62" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C62">
         <v>211.3</v>
@@ -2391,11 +2357,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
+      <c r="A63" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C63">
         <v>772.2</v>
@@ -2411,11 +2377,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
+      <c r="A64" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C64">
         <v>841.9</v>
@@ -2431,11 +2397,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
+      <c r="A65" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C65">
         <v>797</v>
@@ -2451,11 +2417,11 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C66">
         <v>1508</v>
@@ -2471,11 +2437,11 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
+      <c r="A67" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C67">
         <v>1574.7</v>
@@ -2491,11 +2457,11 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
+      <c r="A68" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C68">
         <v>1559.8</v>
@@ -2511,11 +2477,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
+      <c r="A69" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C69">
         <v>6907.2</v>
@@ -2531,11 +2497,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+      <c r="A70" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C70">
         <v>7341.6</v>
@@ -2551,11 +2517,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+      <c r="A71" s="17">
         <v>42342.499305555553</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C71">
         <v>7428.8</v>
@@ -2571,11 +2537,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
+      <c r="A72" s="17">
         <v>42345.57916666667</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>102</v>
+      <c r="B72" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C72">
         <v>93.5</v>
@@ -2591,11 +2557,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+      <c r="A73" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>77.5</v>
@@ -2611,11 +2577,11 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
+      <c r="A74" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C74">
         <v>75.8</v>
@@ -2631,11 +2597,11 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+      <c r="A75" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C75">
         <v>148.30000000000001</v>
@@ -2651,11 +2617,11 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
+      <c r="A76" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C76">
         <v>144.4</v>
@@ -2671,11 +2637,11 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C77">
         <v>203.1</v>
@@ -2691,11 +2657,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
+      <c r="A78" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C78">
         <v>276.10000000000002</v>
@@ -2711,11 +2677,11 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
+      <c r="A79" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C79">
         <v>245.2</v>
@@ -2731,11 +2697,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
+      <c r="A80" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>256.8</v>
@@ -2751,11 +2717,11 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
+      <c r="A81" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C81">
         <v>991.5</v>
@@ -2771,11 +2737,11 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
+      <c r="A82" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C82">
         <v>1039.3</v>
@@ -2791,11 +2757,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
+      <c r="A83" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C83">
         <v>1046.0999999999999</v>
@@ -2811,11 +2777,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
+      <c r="A84" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C84">
         <v>1968.5</v>
@@ -2831,11 +2797,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
+      <c r="A85" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C85">
         <v>2045.1</v>
@@ -2851,11 +2817,11 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
+      <c r="A86" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C86">
         <v>2048.6999999999998</v>
@@ -2871,11 +2837,11 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="23">
+      <c r="A87" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C87">
         <v>9139.7000000000007</v>
@@ -2891,11 +2857,11 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
+      <c r="A88" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>9864.6</v>
@@ -2911,11 +2877,11 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
+      <c r="A89" s="17">
         <v>42345.57916666667</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C89">
         <v>9893</v>
@@ -2931,11 +2897,11 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
+      <c r="A90" s="17">
         <v>42346.744444444441</v>
       </c>
-      <c r="B90" s="25" t="s">
-        <v>102</v>
+      <c r="B90" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C90">
         <v>91.5</v>
@@ -2951,11 +2917,11 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="23">
+      <c r="A91" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>71.2</v>
@@ -2971,11 +2937,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="23">
+      <c r="A92" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>77.7</v>
@@ -2991,11 +2957,11 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
+      <c r="A93" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>148.6</v>
@@ -3011,11 +2977,11 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
+      <c r="A94" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>159.30000000000001</v>
@@ -3031,11 +2997,11 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="23">
+      <c r="A95" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>207.5</v>
@@ -3051,11 +3017,11 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
+      <c r="A96" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>286.2</v>
@@ -3071,11 +3037,11 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="23">
+      <c r="A97" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>267.10000000000002</v>
@@ -3091,11 +3057,11 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
+      <c r="A98" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>254.1</v>
@@ -3111,11 +3077,11 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="23">
+      <c r="A99" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>1061.0999999999999</v>
@@ -3131,11 +3097,11 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="23">
+      <c r="A100" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C100">
         <v>1103.5999999999999</v>
@@ -3151,11 +3117,11 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="23">
+      <c r="A101" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C101">
         <v>511.6</v>
@@ -3171,11 +3137,11 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="23">
+      <c r="A102" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C102">
         <v>2089.3000000000002</v>
@@ -3191,11 +3157,11 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="23">
+      <c r="A103" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C103">
         <v>2173.9</v>
@@ -3211,11 +3177,11 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="23">
+      <c r="A104" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C104">
         <v>2176</v>
@@ -3231,11 +3197,11 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="23">
+      <c r="A105" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C105">
         <v>9745.6</v>
@@ -3251,11 +3217,11 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="23">
+      <c r="A106" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C106">
         <v>10324.200000000001</v>
@@ -3271,11 +3237,11 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="23">
+      <c r="A107" s="17">
         <v>42346.744444444441</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C107">
         <v>10518</v>
@@ -3291,11 +3257,11 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="23">
+      <c r="A108" s="17">
         <v>42373.570833333331</v>
       </c>
-      <c r="B108" s="25" t="s">
-        <v>102</v>
+      <c r="B108" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C108">
         <v>97.7</v>
@@ -3311,11 +3277,11 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="23">
+      <c r="A109" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C109">
         <v>76.099999999999994</v>
@@ -3331,11 +3297,11 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="23">
+      <c r="A110" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C110">
         <v>74.5</v>
@@ -3351,11 +3317,11 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="23">
+      <c r="A111" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C111">
         <v>159</v>
@@ -3371,11 +3337,11 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="23">
+      <c r="A112" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C112">
         <v>170.4</v>
@@ -3391,11 +3357,11 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="23">
+      <c r="A113" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C113">
         <v>244.8</v>
@@ -3411,11 +3377,11 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="23">
+      <c r="A114" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C114">
         <v>356.7</v>
@@ -3431,11 +3397,11 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="23">
+      <c r="A115" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C115">
         <v>308.3</v>
@@ -3451,11 +3417,11 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="23">
+      <c r="A116" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C116">
         <v>302.60000000000002</v>
@@ -3471,11 +3437,11 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="23">
+      <c r="A117" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C117">
         <v>1270.5</v>
@@ -3491,11 +3457,11 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="23">
+      <c r="A118" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C118">
         <v>1328.3</v>
@@ -3511,11 +3477,11 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="23">
+      <c r="A119" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C119">
         <v>451.7</v>
@@ -3531,11 +3497,11 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="23">
+      <c r="A120" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C120">
         <v>2561.6999999999998</v>
@@ -3551,11 +3517,11 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="23">
+      <c r="A121" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C121">
         <v>2586</v>
@@ -3571,11 +3537,11 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="23">
+      <c r="A122" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C122">
         <v>2600.8000000000002</v>
@@ -3591,11 +3557,11 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="23">
+      <c r="A123" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C123">
         <v>11626.6</v>
@@ -3611,11 +3577,11 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="23">
+      <c r="A124" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C124">
         <v>12632.5</v>
@@ -3631,11 +3597,11 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="23">
+      <c r="A125" s="17">
         <v>42373.570833333331</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C125">
         <v>12708</v>
@@ -3651,11 +3617,11 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="23">
+      <c r="A126" s="17">
         <v>42374.613888888889</v>
       </c>
-      <c r="B126" s="25" t="s">
-        <v>102</v>
+      <c r="B126" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C126">
         <v>99.3</v>
@@ -3671,11 +3637,11 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="23">
+      <c r="A127" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C127">
         <v>75.8</v>
@@ -3691,11 +3657,11 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="23">
+      <c r="A128" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B128" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C128">
         <v>79.3</v>
@@ -3711,11 +3677,11 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="23">
+      <c r="A129" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B129" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C129">
         <v>156.69999999999999</v>
@@ -3731,11 +3697,11 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="23">
+      <c r="A130" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B130" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C130">
         <v>178.7</v>
@@ -3751,11 +3717,11 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="23">
+      <c r="A131" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B131" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C131">
         <v>237.4</v>
@@ -3771,11 +3737,11 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="23">
+      <c r="A132" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B132" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C132">
         <v>333.1</v>
@@ -3791,11 +3757,11 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="23">
+      <c r="A133" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C133">
         <v>303.39999999999998</v>
@@ -3811,11 +3777,11 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="23">
+      <c r="A134" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B134" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C134">
         <v>303.8</v>
@@ -3831,11 +3797,11 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="23">
+      <c r="A135" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B135" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C135">
         <v>1264.9000000000001</v>
@@ -3851,11 +3817,11 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="23">
+      <c r="A136" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C136">
         <v>1309</v>
@@ -3871,11 +3837,11 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="23">
+      <c r="A137" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B137" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C137">
         <v>442.9</v>
@@ -3891,11 +3857,11 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="23">
+      <c r="A138" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B138" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C138">
         <v>2550.4</v>
@@ -3911,11 +3877,11 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="23">
+      <c r="A139" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B139" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C139">
         <v>2517.1999999999998</v>
@@ -3931,11 +3897,11 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="23">
+      <c r="A140" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B140" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C140">
         <v>2612.8000000000002</v>
@@ -3951,11 +3917,11 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="23">
+      <c r="A141" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C141">
         <v>11648.2</v>
@@ -3971,11 +3937,11 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="23">
+      <c r="A142" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C142">
         <v>12543.3</v>
@@ -3991,11 +3957,11 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="23">
+      <c r="A143" s="17">
         <v>42374.613888888889</v>
       </c>
       <c r="B143" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C143">
         <v>12657</v>
@@ -4011,11 +3977,11 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="23">
+      <c r="A144" s="17">
         <v>42382.73333333333</v>
       </c>
-      <c r="B144" s="25" t="s">
-        <v>102</v>
+      <c r="B144" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C144">
         <v>97.1</v>
@@ -4031,11 +3997,11 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="23">
+      <c r="A145" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B145" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C145">
         <v>78.400000000000006</v>
@@ -4051,11 +4017,11 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="23">
+      <c r="A146" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B146" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C146">
         <v>74</v>
@@ -4071,11 +4037,11 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="23">
+      <c r="A147" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B147" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C147">
         <v>162.80000000000001</v>
@@ -4091,11 +4057,11 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="23">
+      <c r="A148" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B148" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C148">
         <v>180.5</v>
@@ -4111,11 +4077,11 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="23">
+      <c r="A149" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B149" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C149">
         <v>245.8</v>
@@ -4131,11 +4097,11 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="23">
+      <c r="A150" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B150" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C150">
         <v>336.5</v>
@@ -4151,11 +4117,11 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="23">
+      <c r="A151" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B151" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C151">
         <v>297.60000000000002</v>
@@ -4171,11 +4137,11 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="23">
+      <c r="A152" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B152" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C152">
         <v>299.8</v>
@@ -4191,11 +4157,11 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="23">
+      <c r="A153" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B153" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C153">
         <v>1274.5999999999999</v>
@@ -4211,11 +4177,11 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="23">
+      <c r="A154" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B154" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C154">
         <v>1280</v>
@@ -4231,11 +4197,11 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="23">
+      <c r="A155" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B155" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C155">
         <v>425.4</v>
@@ -4251,11 +4217,11 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="23">
+      <c r="A156" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B156" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C156">
         <v>2499.1</v>
@@ -4271,11 +4237,11 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="23">
+      <c r="A157" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B157" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C157">
         <v>2541.6999999999998</v>
@@ -4291,11 +4257,11 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="23">
+      <c r="A158" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B158" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C158">
         <v>2585.5</v>
@@ -4311,11 +4277,11 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="23">
+      <c r="A159" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B159" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C159">
         <v>11624.1</v>
@@ -4331,11 +4297,11 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="23">
+      <c r="A160" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B160" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C160">
         <v>12578</v>
@@ -4351,11 +4317,11 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="23">
+      <c r="A161" s="17">
         <v>42382.73333333333</v>
       </c>
       <c r="B161" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C161">
         <v>12661.5</v>
@@ -4380,8 +4346,9 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4399,7 +4366,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -4408,21 +4375,21 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>124</v>
+      <c r="A2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C2">
         <v>1.55270833333333</v>
@@ -4431,23 +4398,23 @@
         <v>0.101915893229167</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C2+'Calibration data'!$B$27</f>
-        <v>0.33140874709268081</v>
-      </c>
-      <c r="G2" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F2-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297862691665541</v>
+        <f>(C2-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.17915239410932335</v>
+      </c>
+      <c r="G2" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F2-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664716758210784</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>124</v>
+      <c r="A3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C3">
         <v>1.26270833333333</v>
@@ -4456,23 +4423,23 @@
         <v>9.1767328125000006E-2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C3+'Calibration data'!$B$27</f>
-        <v>0.2679184067959211</v>
-      </c>
-      <c r="G3" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F3-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297862499613789</v>
+        <f>(C3-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.14481160904940085</v>
+      </c>
+      <c r="G3" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F3-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664751051595033</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>124</v>
+      <c r="A4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C4">
         <v>1.24583333333333</v>
@@ -4481,23 +4448,23 @@
         <v>9.1163854166666697E-2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C4+'Calibration data'!$B$27</f>
-        <v>0.26422392578727349</v>
-      </c>
-      <c r="G4" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F4-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297862490257293</v>
+        <f>(C4-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.14281333060841397</v>
+      </c>
+      <c r="G4" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F4-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664753047398761</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>124</v>
+      <c r="A5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C5">
         <v>2.4</v>
@@ -4506,23 +4473,23 @@
         <v>0.12809999999999999</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C5+'Calibration data'!$B$27</f>
-        <v>0.51690818242811365</v>
-      </c>
-      <c r="G5" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F5-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297863591248652</v>
+        <f>(C5-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.27948570793023236</v>
+      </c>
+      <c r="G5" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F5-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664616616145899</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>124</v>
+      <c r="A6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C6">
         <v>2.5714583333333301</v>
@@ -4531,23 +4498,23 @@
         <v>0.13307296874999999</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C6+'Calibration data'!$B$27</f>
-        <v>0.55444593391103902</v>
-      </c>
-      <c r="G6" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F6-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297863834641871</v>
+        <f>(C6-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.29978920369482698</v>
+      </c>
+      <c r="G6" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F6-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664596360914854</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>124</v>
+      <c r="A7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C7">
         <v>3.3866666666666698</v>
@@ -4556,23 +4523,23 @@
         <v>0.154044952380952</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C7+'Calibration data'!$B$27</f>
-        <v>0.73292129424237706</v>
-      </c>
-      <c r="G7" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F7-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297865274389037</v>
+        <f>(C7-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.39632332146744037</v>
+      </c>
+      <c r="G7" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F7-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664500100313389</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>124</v>
+      <c r="A8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C8">
         <v>5.0172222222222196</v>
@@ -4581,23 +4548,23 @@
         <v>0.18488463888888901</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C8+'Calibration data'!$B$27</f>
-        <v>1.0899024221561489</v>
-      </c>
-      <c r="G8" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F8-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.2329786955487895</v>
+        <f>(C8-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.58940800374880475</v>
+      </c>
+      <c r="G8" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F8-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664307781063097</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>124</v>
+      <c r="A9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C9">
         <v>4.1749999999999998</v>
@@ -4606,23 +4573,23 @@
         <v>0.17212928571428601</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F9" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C9+'Calibration data'!$B$27</f>
-        <v>0.90551285148586669</v>
-      </c>
-      <c r="G9" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F9-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297867110690207</v>
+        <f>(C9-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.48967499579699947</v>
+      </c>
+      <c r="G9" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F9-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664407082352563</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>124</v>
+      <c r="A10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C10">
         <v>4.1921428571428603</v>
@@ -4631,23 +4598,23 @@
         <v>0.17181796938775501</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C10+'Calibration data'!$B$27</f>
-        <v>0.90926597505020779</v>
-      </c>
-      <c r="G10" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F10-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297867155471907</v>
+        <f>(C10-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>0.4917049929433992</v>
+      </c>
+      <c r="G10" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F10-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12664405060368294</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>124</v>
+      <c r="A11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C11">
         <v>20.296250000000001</v>
@@ -4656,23 +4623,23 @@
         <v>0.3683769375</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F11" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C11+'Calibration data'!$B$27</f>
-        <v>4.4349737084139242</v>
-      </c>
-      <c r="G11" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F11-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23298000413058645</v>
+        <f>(C11-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>2.3986969997531227</v>
+      </c>
+      <c r="G11" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F11-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12662519812947787</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>124</v>
+      <c r="A12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C12">
         <v>21.003</v>
@@ -4681,23 +4648,23 @@
         <v>0.37511358</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C12+'Calibration data'!$B$27</f>
-        <v>4.5897040463612857</v>
-      </c>
-      <c r="G12" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F12-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23298010434373889</v>
+        <f>(C12-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>2.4823878612741579</v>
+      </c>
+      <c r="G12" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F12-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12662437727109588</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>124</v>
+      <c r="A13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C13">
         <v>9.5923333333333307</v>
@@ -4706,23 +4673,23 @@
         <v>0.26513209333333299</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F13" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C13+'Calibration data'!$B$27</f>
-        <v>2.0915415991903923</v>
-      </c>
-      <c r="G13" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F13-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23297891537748497</v>
+        <f>(C13-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>1.1311766495830458</v>
+      </c>
+      <c r="G13" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F13-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12663769714742557</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>124</v>
+      <c r="A14" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C14">
         <v>40.418750000000003</v>
@@ -4731,23 +4698,23 @@
         <v>0.52039140625000002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F14" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C14+'Calibration data'!$B$27</f>
-        <v>8.8404370622813246</v>
-      </c>
-      <c r="G14" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F14-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23298422963459631</v>
+        <f>(C14-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>4.7815330251610222</v>
+      </c>
+      <c r="G14" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F14-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12660204080568446</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="C15">
         <v>40.911666666666697</v>
@@ -4756,23 +4723,23 @@
         <v>0.52264654166666702</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C15+'Calibration data'!$B$27</f>
-        <v>8.9483523964351619</v>
-      </c>
-      <c r="G15" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F15-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23298436883229826</v>
+        <f>(C15-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>4.8399024917212099</v>
+      </c>
+      <c r="G15" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F15-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12660147911706093</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>124</v>
+      <c r="A16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C16">
         <v>41.562916666666702</v>
@@ -4781,23 +4748,23 @@
         <v>0.52784904166666702</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F16" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C16+'Calibration data'!$B$27</f>
-        <v>9.090931996842972</v>
-      </c>
-      <c r="G16" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F16-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23298455535977408</v>
+        <f>(C16-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>4.9170212374807774</v>
+      </c>
+      <c r="G16" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F16-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12660073741277028</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>124</v>
+      <c r="A17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C17">
         <v>186.01875000000001</v>
@@ -4806,23 +4773,23 @@
         <v>1.12076296875</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F17" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C17+'Calibration data'!$B$27</f>
-        <v>40.716966535413071</v>
-      </c>
-      <c r="G17" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F17-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23309952591058938</v>
+        <f>(C17-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>22.022975455246254</v>
+      </c>
+      <c r="G17" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F17-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12644772104311178</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>124</v>
+      <c r="A18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C18">
         <v>200.32499999999999</v>
@@ -4831,23 +4798,23 @@
         <v>1.15186875</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F18" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C18+'Calibration data'!$B$27</f>
-        <v>43.849065434966576</v>
-      </c>
-      <c r="G18" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F18-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23311888212710244</v>
+        <f>(C18-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>23.717071511327344</v>
+      </c>
+      <c r="G18" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F18-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12643381510792939</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>124</v>
+      <c r="A19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C19">
         <v>202.26875000000001</v>
@@ -4856,23 +4823,23 @@
         <v>1.1630453125</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C19+'Calibration data'!$B$27</f>
-        <v>44.274614914110806</v>
-      </c>
-      <c r="G19" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F19-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23312162275401499</v>
+        <f>(C19-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>23.947243583603981</v>
+      </c>
+      <c r="G19" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F19-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.1264319431268833</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>124</v>
+      <c r="A20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C20">
         <v>211.32208333333301</v>
@@ -4881,23 +4848,23 @@
         <v>1.1886867187500001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F20" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C20+'Calibration data'!$B$27</f>
-        <v>46.256681169811877</v>
-      </c>
-      <c r="G20" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F20-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23313473671437679</v>
+        <f>(C20-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>25.019307632141292</v>
+      </c>
+      <c r="G20" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F20-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12642327886008828</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C21">
         <v>210.07666666666699</v>
@@ -4906,23 +4873,23 @@
         <v>1.18168125</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C21+'Calibration data'!$B$27</f>
-        <v>45.984019349198491</v>
-      </c>
-      <c r="G21" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F21-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23313289861072004</v>
+        <f>(C21-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>24.871829749175696</v>
+      </c>
+      <c r="G21" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F21-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12642446540318175</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>124</v>
+      <c r="A22" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C22">
         <v>219.43833333333299</v>
@@ -4931,23 +4898,23 @@
         <v>1.20691083333333</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C22+'Calibration data'!$B$27</f>
-        <v>48.033589702341445</v>
-      </c>
-      <c r="G22" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F22-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23314698177797669</v>
+        <f>(C22-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>25.980405551943345</v>
+      </c>
+      <c r="G22" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F22-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12641558810639708</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>124</v>
+      <c r="A23" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C23">
         <v>213.95375000000001</v>
@@ -4956,159 +4923,159 @@
         <v>1.1981409999999999</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1">
-        <f>'Calibration data'!$B$28*'Count-&gt;Actual Activity'!C23+'Calibration data'!$B$27</f>
-        <v>46.832837763654382</v>
-      </c>
-      <c r="G23" s="24">
-        <f>'Calibration data'!$L$20/'Calibration data'!$L$31*SQRT(1/'Calibration data'!$L$21+1+('Count-&gt;Actual Activity'!F23-AVERAGE('Calibration data'!$F$3:$F$8))^2/('Calibration data'!$L$31^2*'Calibration data'!$J$9))</f>
-        <v>0.23313865654282592</v>
+        <f>(C23-'Calibration data'!$L$29)/'Calibration data'!$L$30</f>
+        <v>25.330940388518446</v>
+      </c>
+      <c r="G23" s="18">
+        <f>'Calibration data'!$L$19/ABS('Calibration data'!$L$30)*SQRT(1/'Calibration data'!$L$20+1+(F23-AVERAGE('Calibration data'!$L$3:$L$9))^2/('Calibration data'!$L$30^2*SUM('Calibration data'!$J$3:$J$8)))</f>
+        <v>0.12642077721409065</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="B33" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="B34" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="B35" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B36" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="B37" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="B38" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="B39" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="B40" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B41" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5119,11 +5086,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5136,14 +5104,15 @@
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
@@ -5169,24 +5138,20 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="2">
         <v>69.266666666666666</v>
@@ -5211,16 +5176,16 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <f>F2*$B$63+$B$62</f>
+        <v>-2.1646065597239774</v>
+      </c>
       <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">(D2-$L$30)/$L$31</f>
-        <v>0.24403057137578671</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N8" si="1">$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D2-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23936202341417753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <f>D2*$B$30+$B$29</f>
+        <v>0.13209164838024126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -5231,11 +5196,11 @@
         <v>4.5389670875898238</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E8" si="2">B3/60</f>
+        <f t="shared" ref="D3:E9" si="0">B3/60</f>
         <v>3.5588888888888888</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.5649451459830402E-2</v>
       </c>
       <c r="F3" s="2">
@@ -5246,34 +5211,26 @@
       </c>
       <c r="H3" s="5">
         <f>H7/100</f>
-        <v>1.59E-5</v>
+        <v>8.599999999999999E-6</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="3">H3*37000</f>
-        <v>0.58830000000000005</v>
+        <f t="shared" ref="I3:I8" si="1">H3*37000</f>
+        <v>0.31819999999999998</v>
       </c>
       <c r="J3" s="5">
         <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
+        <v>1225.1400040000001</v>
       </c>
       <c r="K3">
-        <f>F3*$B$61+$B$60</f>
-        <v>-2.249901649732176</v>
+        <f>F3*$B$63+$B$62</f>
+        <v>-1.2169279363331229</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.77044240244938123</v>
-      </c>
-      <c r="M3">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="N3">
-        <f>$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D3-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23926048894726873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L3:L10" si="2">D3*$B$30+$B$29</f>
+        <v>0.41681673309525025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -5284,11 +5241,11 @@
         <v>12.530584805000577</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14.189444444444446</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.20884308008334296</v>
       </c>
       <c r="F4" s="2">
@@ -5299,34 +5256,26 @@
       </c>
       <c r="H4" s="5">
         <f>H7/20</f>
-        <v>7.9500000000000008E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.9415000000000004</v>
+        <f t="shared" si="1"/>
+        <v>1.591</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J8" si="4">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
+        <f t="shared" ref="J4:J8" si="3">(I4-AVERAGE($I$3:$I$8))^2</f>
+        <v>1137.6589326399999</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="5">F4*$B$61+$B$60</f>
-        <v>1.1815378350424348</v>
+        <f t="shared" ref="K4:K9" si="4">F4*$B$63+$B$62</f>
+        <v>0.6390707787022003</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>3.0978200335938433</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="6">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.23882097262076729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6756463301427775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -5337,11 +5286,11 @@
         <v>32.620954410720707</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27.261666666666667</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.54368257351201177</v>
       </c>
       <c r="F5" s="2">
@@ -5352,34 +5301,26 @@
       </c>
       <c r="H5" s="5">
         <f>H7/10</f>
-        <v>1.5900000000000002E-4</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>5.8830000000000009</v>
-      </c>
-      <c r="J5" s="5">
+        <v>1032.8638992399999</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>4.6928343319972328</v>
+        <v>2.5382625946651718</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>5.9597586623280572</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.23830159492838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.2236087246307998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -5390,11 +5331,11 @@
         <v>50.234140670352431</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>133.3138888888889</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.83723567783920716</v>
       </c>
       <c r="F6" s="2">
@@ -5405,34 +5346,26 @@
       </c>
       <c r="H6" s="5">
         <f>H7/2</f>
-        <v>7.9500000000000003E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>15.91</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>29.415000000000003</v>
-      </c>
-      <c r="J6" s="5">
+        <v>376.75586404000001</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>33.265360439300757</v>
+        <v>17.992584891697263</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.178071989722408</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.23496515304651927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>15.781905933869924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -5443,11 +5376,11 @@
         <v>53.513259001171903</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>267.61888888888888</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.89188765001953174</v>
       </c>
       <c r="F7" s="2">
@@ -5457,34 +5390,26 @@
         <v>2.9521990740740741E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>1.5900000000000001E-3</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>31.82</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>58.830000000000005</v>
-      </c>
-      <c r="J7" s="5">
+        <v>12.251400039999996</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>67.183146815293682</v>
+        <v>36.338054252297198</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>58.581845961582474</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.23304764250463261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>31.685788675267496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -5495,11 +5420,11 @@
         <v>80.454997758225829</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1343.9216666666666</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3409166293037638</v>
       </c>
       <c r="F8" s="2">
@@ -5510,968 +5435,1279 @@
       </c>
       <c r="H8" s="5">
         <f>H7*5</f>
-        <v>7.9500000000000005E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>294.15000000000003</v>
-      </c>
-      <c r="J8" s="5">
+        <v>15321.438888039998</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>291.73682737921575</v>
+        <v>157.79476197869525</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>159.1374336029937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="2">
+        <v>342248.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9*0.11/100</f>
+        <v>376.47345999999999</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>294.21986095032389</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.30267266037130586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>5704.1433333333325</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2745576666666665</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.5/100</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <f>SUM(J3:J8)</f>
-        <v>65308.483143000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>777.96958299445589</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>675.45815221486782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <v>2882.0033333333336</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>341.27116260310561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
+      <c r="B19" s="7">
+        <v>0.11666575259658109</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.98521674441589902</v>
+      </c>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6</v>
+      </c>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="28"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="28"/>
+      <c r="K22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1403732.1258707412</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1403732.1258709223</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.4443591315706669E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.3610897828926667E-2</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.8826081339098519</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.97065203347746298</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1362539.3250423865</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="28"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0.99999829960800468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="V16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W16" s="11">
-        <v>0.99999659921890061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.2156959844518157</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="V17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0.9999959190626807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="D28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-4.6132328669372669E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.6191006719858279E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-8.2099131804786105E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.93851196251841018</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.9807734204714507E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.47450311588138688</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.3893514862956931E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.93717195197245085</v>
+      </c>
+      <c r="P29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="29"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.11841616277426437</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9.9946793173107741E-5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1184.792017980684</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="9">
+        <v>8.4447690841653227</v>
+      </c>
+      <c r="M30" s="9">
+        <v>7.1276384006686089E-3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1184.7920179807606</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="R30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="29"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" s="28"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="29"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" s="28"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" s="28"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="28"/>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="28"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.41681673309525025</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-9.8616733095250264E-2</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2.7269332567861202</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.83195563210276857</v>
+      </c>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.6756463301427775</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-8.4646330142777559E-2</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>13.475435347111743</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.71400909733270268</v>
+      </c>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.2236087246307998</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-4.1608724630799898E-2</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>26.911062960018771</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.35060370664789531</v>
+      </c>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15.781905933869924</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.12809406613007646</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>134.39608386327501</v>
+      </c>
+      <c r="M40" s="7">
+        <v>-1.0821949743861126</v>
+      </c>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>31.685788675267496</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.13421132473250452</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <v>268.7523599923453</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-1.1334711034564293</v>
+      </c>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>6</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="V18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0.21657792198407996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="V19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.98521674441591967</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="14">
+      <c r="B42" s="9">
+        <v>159.1374336029937</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-3.7433602993701243E-2</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="9">
         <v>6</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="V21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1403732.125870778</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.1860990308345517</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4.6524757708637926E-2</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W23" s="11">
-        <v>1</v>
-      </c>
-      <c r="X23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>1470245.467085684</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>7.241458966576287E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13">
-        <v>65308.483143000012</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="W24" s="11">
-        <v>5</v>
-      </c>
-      <c r="X24" s="11">
-        <v>0.23452998145471113</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>4.6905996290942227E-2</v>
-      </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1403732.1258708637</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>3.0449538110698621E-12</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W25" s="14">
-        <v>6</v>
-      </c>
-      <c r="X25" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="L42" s="9">
+        <v>1343.6025690249076</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.31909764175907185</v>
+      </c>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+    </row>
+    <row r="44" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <v>3.882608133910014</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.97065203347750351</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-8.5291165795524648E-3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.10388802405182966</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-8.2099131804617781E-2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.93851196251853586</v>
-      </c>
-      <c r="F27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14">
-        <v>1362539.3250423865</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD27" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.21893220791986087</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.8478535016888282E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1184.7920179806995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="V28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="W28" s="11">
-        <v>-5.448301612160833E-2</v>
-      </c>
-      <c r="X28" s="11">
-        <v>9.3999431059690358E-2</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>-0.57961006260783854</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>0.58731182151210115</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W29" s="14">
-        <v>0.21897545779439398</v>
-      </c>
-      <c r="X29" s="14">
-        <v>1.8059283611157159E-4</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>1212.5367899926514</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>7.241458966576287E-15</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AB29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3.980773420477135E-2</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>0.47450311588139682</v>
-      </c>
-      <c r="O30" s="11">
-        <v>8.3893514863074975E-2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.93717195197236269</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-      <c r="S30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.5676109511837577</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>3.8552006443868751E-3</v>
-      </c>
-      <c r="O31" s="14">
-        <v>1184.7920179807356</v>
-      </c>
-      <c r="P31" s="14">
-        <v>3.0449538110698516E-12</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="R31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-      <c r="S31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="T31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.77062628560635238</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-0.18232628560635233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>85</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3.0979972847988737</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-0.15649728479887326</v>
-      </c>
-      <c r="V36" s="11">
-        <v>1</v>
-      </c>
-      <c r="W36" s="11">
-        <v>0.19831198459880872</v>
-      </c>
-      <c r="X36" s="11">
-        <v>-0.19831198459880872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5.9599277583290551</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-7.6927758329054186E-2</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V37" s="11">
-        <v>2</v>
-      </c>
-      <c r="W37" s="11">
-        <v>0.72482630756221822</v>
-      </c>
-      <c r="X37" s="11">
-        <v>-0.13652630756221817</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <v>29.178174924247902</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.2368250757521011</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2.7269332567861762</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
-        <v>0.83195563210271262</v>
-      </c>
-      <c r="O38">
-        <f>N38^2</f>
-        <v>0.69215017378742405</v>
-      </c>
-      <c r="V38" s="11">
-        <v>3</v>
-      </c>
-      <c r="W38" s="11">
-        <v>3.0526570769487344</v>
-      </c>
-      <c r="X38" s="11">
-        <v>-0.111157076948734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <v>58.581865108924809</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.24813489107519615</v>
-      </c>
-      <c r="K39" s="11">
-        <v>2</v>
-      </c>
-      <c r="L39" s="11">
-        <v>13.475435347111796</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11">
-        <v>0.71400909733264939</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O43" si="7">N39^2</f>
-        <v>0.50980899107378475</v>
-      </c>
-      <c r="V39" s="11">
-        <v>4</v>
-      </c>
-      <c r="W39" s="11">
-        <v>5.915152922449896</v>
-      </c>
-      <c r="X39" s="11">
-        <v>-3.2152922449895094E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13">
-        <v>294.21920863809305</v>
-      </c>
-      <c r="C40" s="13">
-        <v>-6.9208638093016361E-2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>3</v>
-      </c>
-      <c r="L40" s="11">
-        <v>26.911062960018821</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11">
-        <v>0.35060370664784557</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>0.12292295911520855</v>
-      </c>
-      <c r="V40" s="11">
-        <v>5</v>
-      </c>
-      <c r="W40" s="11">
-        <v>29.137986833673811</v>
-      </c>
-      <c r="X40" s="11">
-        <v>0.27701316632619211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="K41" s="11">
-        <v>4</v>
-      </c>
-      <c r="L41" s="11">
-        <v>134.39608386327501</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11">
-        <v>-1.0821949743861126</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1.1711459625865588</v>
-      </c>
-      <c r="V41" s="11">
-        <v>6</v>
-      </c>
-      <c r="W41" s="11">
-        <v>58.547485692749888</v>
-      </c>
-      <c r="X41" s="11">
-        <v>0.28251430725011772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="11">
-        <v>5</v>
-      </c>
-      <c r="L42" s="11">
-        <v>268.75235999234525</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <v>-1.1334711034563725</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>1.2847567423706066</v>
-      </c>
-      <c r="V42" s="14">
-        <v>7</v>
-      </c>
-      <c r="W42" s="14">
-        <v>294.23137918201667</v>
-      </c>
-      <c r="X42" s="14">
-        <v>-8.1379182016632967E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="14">
-        <v>6</v>
-      </c>
-      <c r="L43" s="14">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>0.10182330497649117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="10"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -6479,14 +6715,32 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0.99913678675732565</v>
-      </c>
+      <c r="J46" s="28"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -6494,14 +6748,34 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0.99827431865175353</v>
-      </c>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -6509,13 +6783,35 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0.99792918238210437</v>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.99913678675732565</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -6524,13 +6820,35 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="11">
-        <v>4.8787115983951139</v>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.99827431865175353</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -6539,13 +6857,35 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="14">
-        <v>7</v>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.99792918238210437</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -6554,10 +6894,36 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.6387999840376106</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -6565,12 +6931,36 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="9">
+        <v>7</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -6578,209 +6968,450 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="D55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="E55" s="11">
-        <v>2892.4062940883214</v>
-      </c>
-      <c r="F55" s="11">
-        <v>4.2028918326297201E-8</v>
-      </c>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="11">
-        <v>5</v>
-      </c>
-      <c r="C56" s="11">
-        <v>119.00913430157502</v>
-      </c>
-      <c r="D56" s="11">
-        <v>23.801826860315003</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="14">
-        <v>6</v>
-      </c>
-      <c r="C57" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>20140.592542398361</v>
+      </c>
+      <c r="D57" s="7">
+        <v>20140.592542398361</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2892.4062940883168</v>
+      </c>
+      <c r="F57" s="7">
+        <v>4.2028918326297353E-8</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="7">
+        <v>5</v>
+      </c>
+      <c r="C58" s="7">
+        <v>34.816326778784465</v>
+      </c>
+      <c r="D58" s="7">
+        <v>6.9632653557568931</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16" t="s">
+      <c r="J58" s="28"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="9">
+        <v>6</v>
+      </c>
+      <c r="C59" s="9">
+        <v>20175.408869177147</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
+      <c r="AE59" s="29"/>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="29"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
+      <c r="AE61" s="29"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="B62" s="7">
+        <v>-2.6401241688634265</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.1701746549167438</v>
+      </c>
+      <c r="D62" s="7">
+        <v>-2.2561795863295875</v>
+      </c>
+      <c r="E62" s="7">
+        <v>7.3703712687859205E-2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-5.6481538813144017</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.36790554358754823</v>
+      </c>
+      <c r="H62" s="7">
+        <v>-5.6481538813144017</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.36790554358754823</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
+      <c r="AE62" s="29"/>
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="11">
-        <v>-4.8811598005730872</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2.1634624433925831</v>
-      </c>
-      <c r="D60" s="11">
-        <v>-2.2561795863295924</v>
-      </c>
-      <c r="E60" s="11">
-        <v>7.3703712687858761E-2</v>
-      </c>
-      <c r="F60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="H60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="14">
-        <v>759.58961712954601</v>
-      </c>
-      <c r="C61" s="14">
-        <v>14.12372883203613</v>
-      </c>
-      <c r="D61" s="14">
-        <v>53.781096066260332</v>
-      </c>
-      <c r="E61" s="14">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="G61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="H61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="I61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <v>410.84721429648386</v>
+      </c>
+      <c r="C63" s="9">
+        <v>7.6392495569503653</v>
+      </c>
+      <c r="D63" s="9">
+        <v>53.781096066260275</v>
+      </c>
+      <c r="E63" s="9">
+        <v>4.2028918326297353E-8</v>
+      </c>
+      <c r="F63" s="9">
+        <v>391.20989814749447</v>
+      </c>
+      <c r="G63" s="9">
+        <v>430.48453044547324</v>
+      </c>
+      <c r="H63" s="9">
+        <v>391.20989814749447</v>
+      </c>
+      <c r="I63" s="9">
+        <v>430.48453044547324</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
+      <c r="AE63" s="29"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -6790,11 +7421,31 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
+      <c r="J64" s="28"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -6803,8 +7454,30 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="28"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -6814,50 +7487,106 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="J66" s="28"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
+      <c r="AE66" s="29"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>1</v>
-      </c>
-      <c r="B68" s="11">
-        <v>-4.0020051511175945</v>
-      </c>
-      <c r="C68" s="11">
-        <v>4.0020051511175945</v>
-      </c>
+      <c r="J67" s="28"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="29"/>
+    </row>
+    <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>2</v>
-      </c>
-      <c r="B69" s="11">
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2.8382016497321763</v>
+      <c r="J68" s="28"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
+      <c r="AE68" s="29"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -6865,16 +7594,38 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>3</v>
-      </c>
-      <c r="B70" s="11">
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1.7599621649575656</v>
+      <c r="J69" s="28"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="29"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>-2.1646065597239774</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2.1646065597239774</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -6882,16 +7633,38 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>4</v>
-      </c>
-      <c r="B71" s="11">
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1.1901656680027681</v>
+      <c r="J70" s="28"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7">
+        <v>-1.2169279363331229</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1.5351279363331229</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -6899,16 +7672,38 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>5</v>
-      </c>
-      <c r="B72" s="11">
-        <v>33.265360439300757</v>
-      </c>
-      <c r="C72" s="11">
-        <v>-3.8503604393007542</v>
+      <c r="J71" s="28"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29"/>
+      <c r="AC71" s="29"/>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="29"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0.6390707787022003</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.95192922129779967</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -6917,15 +7712,15 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11">
-        <v>67.183146815293682</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-8.3531468152936768</v>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2.5382625946651718</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.64373740533482815</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -6934,15 +7729,15 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14">
-        <v>291.73682737921575</v>
-      </c>
-      <c r="C74" s="14">
-        <v>2.4131726207842803</v>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7">
+        <v>17.992584891697263</v>
+      </c>
+      <c r="C74" s="7">
+        <v>-2.0825848916972625</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -6950,6 +7745,45 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
+    </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>6</v>
+      </c>
+      <c r="B75" s="7">
+        <v>36.338054252297198</v>
+      </c>
+      <c r="C75" s="7">
+        <v>-4.5180542522971976</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>7</v>
+      </c>
+      <c r="B76" s="9">
+        <v>157.79476197869525</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1.3052380213047456</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6962,10 +7796,16 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7016,34 +7856,34 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" t="s">
-        <v>101</v>
       </c>
       <c r="Q1" t="s">
         <v>30</v>
@@ -7064,12 +7904,12 @@
         <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>102</v>
+      <c r="A2" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7083,7 +7923,7 @@
       <c r="E2" s="1">
         <v>0.03</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G2" s="1">
@@ -7094,10 +7934,11 @@
       </c>
       <c r="I2">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>0.33140874709268081</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.23</v>
+        <v>0.17915239410932335</v>
+      </c>
+      <c r="J2" s="18">
+        <f>'Count-&gt;Actual Activity'!G2</f>
+        <v>0.12664716758210784</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -7111,7 +7952,7 @@
       <c r="P2" s="1"/>
       <c r="Q2">
         <f>I2/K2</f>
-        <v>3.3140874709268082E-2</v>
+        <v>1.7915239410932336E-2</v>
       </c>
       <c r="S2">
         <f>B2*Parameters!$B$6</f>
@@ -7119,7 +7960,7 @@
       </c>
       <c r="U2">
         <f>(S2-Q2*G2)/E2</f>
-        <v>-110.46958236422695</v>
+        <v>-59.717464703107787</v>
       </c>
       <c r="W2" t="e">
         <f>U2*E2/S2</f>
@@ -7127,8 +7968,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>103</v>
+      <c r="A3" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7142,7 +7983,7 @@
       <c r="E3" s="1">
         <v>0.03</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G3" s="1">
@@ -7153,10 +7994,11 @@
       </c>
       <c r="I3">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>0.2679184067959211</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.23</v>
+        <v>0.14481160904940085</v>
+      </c>
+      <c r="J3" s="18">
+        <f>'Count-&gt;Actual Activity'!G3</f>
+        <v>0.12664751051595033</v>
       </c>
       <c r="K3" s="1">
         <v>10</v>
@@ -7170,7 +8012,7 @@
       <c r="P3" s="1"/>
       <c r="Q3">
         <f t="shared" ref="Q3:Q23" si="0">I3/K3</f>
-        <v>2.6791840679592109E-2</v>
+        <v>1.4481160904940085E-2</v>
       </c>
       <c r="S3">
         <f>B3*Parameters!$B$6</f>
@@ -7178,7 +8020,7 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U23" si="1">(S3-Q3*G3)/E3</f>
-        <v>-89.306135598640367</v>
+        <v>-48.270536349800281</v>
       </c>
       <c r="W3" t="e">
         <f t="shared" ref="W3:W23" si="2">U3*E3/S3</f>
@@ -7186,8 +8028,8 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>104</v>
+      <c r="A4" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7201,7 +8043,7 @@
       <c r="E4" s="1">
         <v>0.03</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G4" s="1">
@@ -7212,10 +8054,11 @@
       </c>
       <c r="I4">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>0.26422392578727349</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.23</v>
+        <v>0.14281333060841397</v>
+      </c>
+      <c r="J4" s="18">
+        <f>'Count-&gt;Actual Activity'!G4</f>
+        <v>0.12664753047398761</v>
       </c>
       <c r="K4" s="1">
         <v>10</v>
@@ -7229,7 +8072,7 @@
       <c r="P4" s="1"/>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>2.642239257872735E-2</v>
+        <v>1.4281333060841398E-2</v>
       </c>
       <c r="S4">
         <f>B4*Parameters!$B$6</f>
@@ -7237,7 +8080,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>-88.074641929091172</v>
+        <v>-47.604443536138</v>
       </c>
       <c r="W4" t="e">
         <f t="shared" si="2"/>
@@ -7245,8 +8088,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>105</v>
+      <c r="A5" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="B5">
         <v>7.92E-3</v>
@@ -7260,7 +8103,7 @@
       <c r="E5" s="1">
         <v>0.03</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G5" s="1">
@@ -7271,10 +8114,11 @@
       </c>
       <c r="I5">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>0.51690818242811365</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.23</v>
+        <v>0.27948570793023236</v>
+      </c>
+      <c r="J5" s="18">
+        <f>'Count-&gt;Actual Activity'!G5</f>
+        <v>0.12664616616145899</v>
       </c>
       <c r="K5" s="1">
         <v>10</v>
@@ -7288,24 +8132,24 @@
       <c r="P5" s="1"/>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>5.1690818242811368E-2</v>
+        <v>2.7948570793023236E-2</v>
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>-5.5807985125850834</v>
+        <v>-2.9540635461189497</v>
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>-3.347369207687402E-2</v>
+        <v>-3.2747304177554948E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>106</v>
+      <c r="A6" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B6">
         <v>7.92E-3</v>
@@ -7319,7 +8163,7 @@
       <c r="E6" s="1">
         <v>0.03</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G6" s="1">
@@ -7330,10 +8174,11 @@
       </c>
       <c r="I6">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>0.55444593391103902</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.23</v>
+        <v>0.29978920369482698</v>
+      </c>
+      <c r="J6" s="18">
+        <f>'Count-&gt;Actual Activity'!G6</f>
+        <v>0.12664596360914854</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -7347,24 +8192,24 @@
       <c r="P6" s="1"/>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>5.54445933911039E-2</v>
+        <v>2.9978920369482697E-2</v>
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>-18.09338234022686</v>
+        <v>-9.7218954676504765</v>
       </c>
       <c r="W6">
         <f t="shared" si="2"/>
-        <v>-0.10852431022551999</v>
+        <v>-0.10777217994508352</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>107</v>
+      <c r="A7" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B7">
         <v>7.92E-3</v>
@@ -7378,7 +8223,7 @@
       <c r="E7" s="1">
         <v>0.03</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G7" s="1">
@@ -7389,10 +8234,11 @@
       </c>
       <c r="I7">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>0.73292129424237706</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.23</v>
+        <v>0.39632332146744037</v>
+      </c>
+      <c r="J7" s="18">
+        <f>'Count-&gt;Actual Activity'!G7</f>
+        <v>0.12664500100313389</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
@@ -7406,24 +8252,24 @@
       <c r="P7" s="1"/>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>7.3292129424237712E-2</v>
+        <v>3.963233214674404E-2</v>
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
-        <v>-77.585169117339561</v>
+        <v>-41.899934725188288</v>
       </c>
       <c r="W7">
         <f t="shared" si="2"/>
-        <v>-0.46535671461878919</v>
+        <v>-0.46448219073286923</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>108</v>
+      <c r="A8" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="B8">
         <v>1.5800000000000002E-2</v>
@@ -7437,7 +8283,7 @@
       <c r="E8" s="1">
         <v>0.03</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G8" s="1">
@@ -7448,10 +8294,11 @@
       </c>
       <c r="I8">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>1.0899024221561489</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.23</v>
+        <v>0.58940800374880475</v>
+      </c>
+      <c r="J8" s="18">
+        <f>'Count-&gt;Actual Activity'!G8</f>
+        <v>0.12664307781063097</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
@@ -7465,24 +8312,24 @@
       <c r="P8" s="1"/>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0.10899024221561489</v>
+        <v>5.8940800374880475E-2</v>
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>-30.698979402737159</v>
+        <v>-16.509251535307211</v>
       </c>
       <c r="W8">
         <f t="shared" si="2"/>
-        <v>-9.2299490922638422E-2</v>
+        <v>-9.1738408072071856E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>109</v>
+      <c r="A9" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B9">
         <v>1.5800000000000002E-2</v>
@@ -7496,7 +8343,7 @@
       <c r="E9" s="1">
         <v>0.03</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G9" s="1">
@@ -7507,10 +8354,11 @@
       </c>
       <c r="I9">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>0.90551285148586669</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.23</v>
+        <v>0.48967499579699947</v>
+      </c>
+      <c r="J9" s="18">
+        <f>'Count-&gt;Actual Activity'!G9</f>
+        <v>0.12664407082352563</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
@@ -7524,24 +8372,24 @@
       <c r="P9" s="1"/>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>9.0551285148586666E-2</v>
+        <v>4.8967499579699945E-2</v>
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>30.764210820690252</v>
+        <v>16.735084448627873</v>
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>9.2495615575195936E-2</v>
+        <v>9.2993313657222618E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>110</v>
+      <c r="A10" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="B10">
         <v>1.5800000000000002E-2</v>
@@ -7555,7 +8403,7 @@
       <c r="E10" s="1">
         <v>0.03</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G10" s="1">
@@ -7566,10 +8414,11 @@
       </c>
       <c r="I10">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>0.90926597505020779</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.23</v>
+        <v>0.4917049929433992</v>
+      </c>
+      <c r="J10" s="18">
+        <f>'Count-&gt;Actual Activity'!G10</f>
+        <v>0.12664405060368294</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
@@ -7583,24 +8432,24 @@
       <c r="P10" s="1"/>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>9.0926597505020773E-2</v>
+        <v>4.917049929433992E-2</v>
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>29.513169632576524</v>
+        <v>16.058418733161311</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>8.873423760652463E-2</v>
+        <v>8.9233225842151542E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>111</v>
+      <c r="A11" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="B11">
         <v>7.9100000000000004E-2</v>
@@ -7614,7 +8463,7 @@
       <c r="E11" s="1">
         <v>0.03</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G11" s="1">
@@ -7625,10 +8474,11 @@
       </c>
       <c r="I11">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>4.4349737084139242</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.23</v>
+        <v>2.3986969997531227</v>
+      </c>
+      <c r="J11" s="18">
+        <f>'Count-&gt;Actual Activity'!G11</f>
+        <v>0.12662519812947787</v>
       </c>
       <c r="K11" s="1">
         <v>10</v>
@@ -7642,24 +8492,24 @@
       <c r="P11" s="1"/>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>0.4434973708413924</v>
+        <v>0.23986969997531227</v>
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>186.78964530257053</v>
+        <v>101.37373652115424</v>
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>0.11217827800955769</v>
+        <v>0.11252003871927463</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>112</v>
+      <c r="A12" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="B12">
         <v>7.9100000000000004E-2</v>
@@ -7673,7 +8523,7 @@
       <c r="E12" s="1">
         <v>0.03</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G12" s="1">
@@ -7684,10 +8534,11 @@
       </c>
       <c r="I12">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>4.5897040463612857</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.23</v>
+        <v>2.4823878612741579</v>
+      </c>
+      <c r="J12" s="18">
+        <f>'Count-&gt;Actual Activity'!G12</f>
+        <v>0.12662437727109588</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
@@ -7701,83 +8552,84 @@
       <c r="P12" s="1"/>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0.45897040463612859</v>
+        <v>0.24823878612741579</v>
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>135.21286598678327</v>
+        <v>73.47678268080908</v>
       </c>
       <c r="W12">
         <f t="shared" si="2"/>
-        <v>8.1203358176330911E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="27">
+        <v>8.1555743291430477E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="21">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="21">
         <v>2E-3</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="21">
         <v>5</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="22">
         <v>0.03</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="23">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="22">
         <v>100</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="22">
         <v>5</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="21">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>2.0915415991903923</v>
-      </c>
-      <c r="J13" s="28">
-        <v>0.23</v>
-      </c>
-      <c r="K13" s="28">
+        <v>1.1311766495830458</v>
+      </c>
+      <c r="J13" s="18">
+        <f>'Count-&gt;Actual Activity'!G13</f>
+        <v>0.12663769714742557</v>
+      </c>
+      <c r="K13" s="22">
         <v>10</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="22">
         <v>0.02</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="27">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="21">
         <f t="shared" si="0"/>
-        <v>0.20915415991903924</v>
-      </c>
-      <c r="S13" s="27">
+        <v>0.11311766495830458</v>
+      </c>
+      <c r="S13" s="21">
         <f>B13*Parameters!$B$6</f>
-        <v>49.953426443216358</v>
-      </c>
-      <c r="U13" s="27">
+        <v>27.028182093165853</v>
+      </c>
+      <c r="U13" s="21">
         <f t="shared" si="1"/>
-        <v>967.93368171041448</v>
-      </c>
-      <c r="W13" s="27">
+        <v>523.88051991117982</v>
+      </c>
+      <c r="W13" s="21">
         <f t="shared" si="2"/>
-        <v>0.58130167475740346</v>
+        <v>0.58148252602269279</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>114</v>
+      <c r="A14" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="B14">
         <v>0.158</v>
@@ -7791,7 +8643,7 @@
       <c r="E14" s="1">
         <v>0.03</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G14" s="1">
@@ -7802,10 +8654,11 @@
       </c>
       <c r="I14">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>8.8404370622813246</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.23</v>
+        <v>4.7815330251610222</v>
+      </c>
+      <c r="J14" s="18">
+        <f>'Count-&gt;Actual Activity'!G14</f>
+        <v>0.12660204080568446</v>
       </c>
       <c r="K14" s="1">
         <v>10</v>
@@ -7819,24 +8672,24 @@
       <c r="P14" s="1"/>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>0.88404370622813244</v>
+        <v>0.47815330251610222</v>
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>379.20592573268266</v>
+        <v>205.75648875593612</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>0.1140119788374911</v>
+        <v>0.11433451533887169</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>115</v>
+      <c r="A15" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="B15">
         <v>0.158</v>
@@ -7850,7 +8703,7 @@
       <c r="E15" s="1">
         <v>0.03</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G15" s="1">
@@ -7861,10 +8714,11 @@
       </c>
       <c r="I15">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>8.9483523964351619</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.23</v>
+        <v>4.8399024917212099</v>
+      </c>
+      <c r="J15" s="18">
+        <f>'Count-&gt;Actual Activity'!G15</f>
+        <v>0.12660147911706093</v>
       </c>
       <c r="K15" s="1">
         <v>10</v>
@@ -7878,24 +8732,24 @@
       <c r="P15" s="1"/>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>0.89483523964351619</v>
+        <v>0.48399024917212097</v>
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>343.23414768140361</v>
+        <v>186.29999990254026</v>
       </c>
       <c r="W15">
         <f t="shared" si="2"/>
-        <v>0.10319671114354567</v>
+        <v>0.10352295728449663</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>116</v>
+      <c r="A16" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="B16">
         <v>0.158</v>
@@ -7909,7 +8763,7 @@
       <c r="E16" s="1">
         <v>0.03</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G16" s="1">
@@ -7920,10 +8774,11 @@
       </c>
       <c r="I16">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>9.090931996842972</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.23</v>
+        <v>4.9170212374807774</v>
+      </c>
+      <c r="J16" s="18">
+        <f>'Count-&gt;Actual Activity'!G16</f>
+        <v>0.12660073741277028</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -7937,24 +8792,24 @@
       <c r="P16" s="1"/>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>0.90909319968429725</v>
+        <v>0.49170212374807776</v>
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>295.70761421213331</v>
+        <v>160.5937513160176</v>
       </c>
       <c r="W16">
         <f t="shared" si="2"/>
-        <v>8.890739296464796E-2</v>
+        <v>8.9238540345369446E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>117</v>
+      <c r="A17" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="B17">
         <v>0.79200000000000004</v>
@@ -7968,7 +8823,7 @@
       <c r="E17" s="1">
         <v>0.03</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G17" s="1">
@@ -7979,10 +8834,11 @@
       </c>
       <c r="I17">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>40.716966535413071</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.23</v>
+        <v>22.022975455246254</v>
+      </c>
+      <c r="J17" s="18">
+        <f>'Count-&gt;Actual Activity'!G17</f>
+        <v>0.12644772104311178</v>
       </c>
       <c r="K17" s="1">
         <v>10</v>
@@ -7992,24 +8848,24 @@
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>4.0716966535413075</v>
+        <v>2.2022975455246252</v>
       </c>
       <c r="S17">
         <f>B17*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
-        <v>3099.8707178742566</v>
+        <v>1679.792091313768</v>
       </c>
       <c r="W17">
         <f t="shared" si="2"/>
-        <v>0.18593059336266318</v>
+        <v>0.18621353843783597</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>118</v>
+      <c r="A18" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="B18">
         <v>0.79200000000000004</v>
@@ -8023,7 +8879,7 @@
       <c r="E18" s="1">
         <v>0.03</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G18" s="1">
@@ -8034,10 +8890,11 @@
       </c>
       <c r="I18">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>43.849065434966576</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.23</v>
+        <v>23.717071511327344</v>
+      </c>
+      <c r="J18" s="18">
+        <f>'Count-&gt;Actual Activity'!G18</f>
+        <v>0.12643381510792939</v>
       </c>
       <c r="K18" s="1">
         <v>10</v>
@@ -8047,24 +8904,24 @@
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>4.3849065434966574</v>
+        <v>2.3717071511327346</v>
       </c>
       <c r="S18">
         <f>B18*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>2055.8377513564228</v>
+        <v>1115.0934059534034</v>
       </c>
       <c r="W18">
         <f t="shared" si="2"/>
-        <v>0.12330937892441754</v>
+        <v>0.12361380309207294</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>119</v>
+      <c r="A19" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B19">
         <v>0.79200000000000004</v>
@@ -8078,7 +8935,7 @@
       <c r="E19" s="1">
         <v>0.03</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G19" s="1">
@@ -8089,10 +8946,11 @@
       </c>
       <c r="I19">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>44.274614914110806</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.23</v>
+        <v>23.947243583603981</v>
+      </c>
+      <c r="J19" s="18">
+        <f>'Count-&gt;Actual Activity'!G19</f>
+        <v>0.1264319431268833</v>
       </c>
       <c r="K19" s="1">
         <v>10</v>
@@ -8102,24 +8960,24 @@
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
-        <v>4.4274614914110808</v>
+        <v>2.3947243583603983</v>
       </c>
       <c r="S19">
         <f>B19*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>1913.9879249750115</v>
+        <v>1038.3693818611903</v>
       </c>
       <c r="W19">
         <f t="shared" si="2"/>
-        <v>0.11480121042712849</v>
+        <v>0.11510855289874286</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>132</v>
+      <c r="A20" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="B20">
         <v>0.79200000000000004</v>
@@ -8133,7 +8991,7 @@
       <c r="E20" s="1">
         <v>0.03</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G20" s="1">
@@ -8144,10 +9002,11 @@
       </c>
       <c r="I20">
         <f>'Count-&gt;Actual Activity'!F20</f>
-        <v>46.256681169811877</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.23</v>
+        <v>25.019307632141292</v>
+      </c>
+      <c r="J20" s="18">
+        <f>'Count-&gt;Actual Activity'!G20</f>
+        <v>0.12642327886008828</v>
       </c>
       <c r="K20" s="1">
         <v>10</v>
@@ -8157,24 +9016,24 @@
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
-        <v>4.6256681169811875</v>
+        <v>2.501930763214129</v>
       </c>
       <c r="S20">
         <f>B20*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>1253.2991730746573</v>
+        <v>681.01469901542191</v>
       </c>
       <c r="W20">
         <f t="shared" si="2"/>
-        <v>7.5173024980378769E-2</v>
+        <v>7.5493959929682733E-2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>133</v>
+      <c r="A21" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="B21">
         <v>0.79200000000000004</v>
@@ -8188,7 +9047,7 @@
       <c r="E21" s="1">
         <v>0.03</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G21" s="1">
@@ -8199,10 +9058,11 @@
       </c>
       <c r="I21">
         <f>'Count-&gt;Actual Activity'!F21</f>
-        <v>45.984019349198491</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.23</v>
+        <v>24.871829749175696</v>
+      </c>
+      <c r="J21" s="18">
+        <f>'Count-&gt;Actual Activity'!G21</f>
+        <v>0.12642446540318175</v>
       </c>
       <c r="K21" s="1">
         <v>10</v>
@@ -8212,24 +9072,24 @@
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
-        <v>4.5984019349198491</v>
+        <v>2.4871829749175696</v>
       </c>
       <c r="S21">
         <f>B21*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
-        <v>1344.1864466124514</v>
+        <v>730.17399333728576</v>
       </c>
       <c r="W21">
         <f t="shared" si="2"/>
-        <v>8.0624453841768529E-2</v>
+        <v>8.094351894958611E-2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>134</v>
+      <c r="A22" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="B22">
         <v>0.79200000000000004</v>
@@ -8243,7 +9103,7 @@
       <c r="E22" s="1">
         <v>0.03</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G22" s="1">
@@ -8254,10 +9114,11 @@
       </c>
       <c r="I22">
         <f>'Count-&gt;Actual Activity'!F22</f>
-        <v>48.033589702341445</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.23</v>
+        <v>25.980405551943345</v>
+      </c>
+      <c r="J22" s="18">
+        <f>'Count-&gt;Actual Activity'!G22</f>
+        <v>0.12641558810639708</v>
       </c>
       <c r="K22" s="1">
         <v>10</v>
@@ -8267,24 +9128,24 @@
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>4.8033589702341448</v>
+        <v>2.5980405551943346</v>
       </c>
       <c r="S22">
         <f>B22*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
-        <v>660.99632889813245</v>
+        <v>360.64872574806941</v>
       </c>
       <c r="W22">
         <f t="shared" si="2"/>
-        <v>3.9646633949576585E-2</v>
+        <v>3.9979754460041879E-2</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>135</v>
+      <c r="A23" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="B23">
         <v>0.79200000000000004</v>
@@ -8298,7 +9159,7 @@
       <c r="E23" s="1">
         <v>0.03</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G23" s="1">
@@ -8309,10 +9170,11 @@
       </c>
       <c r="I23">
         <f>'Count-&gt;Actual Activity'!F23</f>
-        <v>46.832837763654382</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.23</v>
+        <v>25.330940388518446</v>
+      </c>
+      <c r="J23" s="18">
+        <f>'Count-&gt;Actual Activity'!G23</f>
+        <v>0.12642077721409065</v>
       </c>
       <c r="K23" s="1">
         <v>10</v>
@@ -8322,19 +9184,19 @@
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
-        <v>4.683283776365438</v>
+        <v>2.5330940388518446</v>
       </c>
       <c r="S23">
         <f>B23*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>1061.2469751271553</v>
+        <v>577.13711355636974</v>
       </c>
       <c r="W23">
         <f t="shared" si="2"/>
-        <v>6.3653712605484053E-2</v>
+        <v>6.3978598681862911E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8347,8 +9209,9 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8360,25 +9223,25 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8387,19 +9250,19 @@
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
-        <v>2.8785035989195847E-2</v>
+        <v>1.5559244458904603E-2</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!Q2:Q4)</f>
-        <v>3.7767871519677329E-3</v>
+        <v>2.0427963560532389E-3</v>
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!U2:U4)</f>
-        <v>-95.950119963986154</v>
+        <v>-51.864148196348687</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
-        <v>12.589290506559179</v>
+        <v>6.8093211868441603</v>
       </c>
       <c r="F2" t="e">
         <f>AVERAGE('Bottle Results'!W2:W4)</f>
@@ -8424,27 +9287,27 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!Q5:Q7)</f>
-        <v>6.0142513686050995E-2</v>
+        <v>3.2519941103083323E-2</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!Q5:Q7)</f>
-        <v>1.1541533802422434E-2</v>
+        <v>6.2426083986676451E-3</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>-33.753116656717168</v>
+        <v>-18.191964579652574</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>38.471779341408237</v>
+        <v>20.80869466222557</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>-0.2024515723070611</v>
+        <v>-0.20166722495183589</v>
       </c>
       <c r="G3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>0.2307541640178698</v>
+        <v>0.23067501528090892</v>
       </c>
       <c r="H3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -8461,27 +9324,27 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
-        <v>9.682270828974078E-2</v>
+        <v>5.2359599749640114E-2</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!Q8:Q10)</f>
-        <v>1.0539064295239695E-2</v>
+        <v>5.7003906421651557E-3</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>9.8594670168432064</v>
+        <v>5.4280838821606574</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>35.130214317465636</v>
+        <v>19.001302140550514</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>2.9643454086360713E-2</v>
+        <v>3.0162710475767435E-2</v>
       </c>
       <c r="G4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>0.10562243307724284</v>
+        <v>0.10558620455582746</v>
       </c>
       <c r="H4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -8497,35 +9360,35 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <f>AVERAGE('Bottle Results'!Q11:Q12)</f>
-        <v>0.4512338877387605</v>
+        <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
+        <v>0.20040871702034421</v>
       </c>
       <c r="C5">
-        <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q12)</f>
-        <v>1.0941087121786579E-2</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
+        <v>7.5711995273725463E-2</v>
       </c>
       <c r="D5">
-        <f>AVERAGE('Bottle Results'!U11:U12)</f>
-        <v>161.00125564467692</v>
+        <f>AVERAGE('Bottle Results'!U11:U13)</f>
+        <v>232.91034637104772</v>
       </c>
       <c r="E5">
-        <f>_xlfn.STDEV.S('Bottle Results'!U11:U12)</f>
-        <v>36.470290405955076</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
+        <v>252.37331757908467</v>
       </c>
       <c r="F5">
-        <f>AVERAGE('Bottle Results'!W11:W12)</f>
-        <v>9.6690818092944303E-2</v>
+        <f>AVERAGE('Bottle Results'!W11:W13)</f>
+        <v>0.25851943601113264</v>
       </c>
       <c r="G5">
-        <f>_xlfn.STDEV.S('Bottle Results'!W11:W12)</f>
-        <v>2.1902575860784347E-2</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
+        <v>0.28012241079606082</v>
       </c>
       <c r="H5">
-        <f>AVERAGE('Bottle Results'!D11:D12)</f>
+        <f>AVERAGE('Bottle Results'!D11:D13)</f>
         <v>5</v>
       </c>
       <c r="I5">
-        <f>_xlfn.STDEV.S('Bottle Results'!D11:D12)</f>
+        <f>_xlfn.STDEV.S('Bottle Results'!D11:D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -8535,27 +9398,27 @@
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
-        <v>0.89599071518531537</v>
+        <v>0.48461522514543365</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!Q14:Q16)</f>
-        <v>1.2564657711150862E-2</v>
+        <v>6.7959977501042025E-3</v>
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>339.38256254207323</v>
+        <v>184.21674665816465</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>41.88219237050302</v>
+        <v>22.653325833680704</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.10203869431522823</v>
+        <v>0.10236533765624593</v>
       </c>
       <c r="G6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>1.259229169741323E-2</v>
+        <v>1.2587972538157445E-2</v>
       </c>
       <c r="H6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -8572,27 +9435,27 @@
       </c>
       <c r="B7">
         <f>AVERAGE('Bottle Results'!Q17:Q20)</f>
-        <v>4.3774332013575581</v>
+        <v>2.3676649545579718</v>
       </c>
       <c r="C7">
         <f>_xlfn.STDEV.S('Bottle Results'!Q17:Q120)</f>
-        <v>0.24213077262788918</v>
+        <v>0.1309641873132579</v>
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U20)</f>
-        <v>2080.7488918200875</v>
+        <v>1128.5673945359458</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U20)</f>
-        <v>764.13613934825696</v>
+        <v>413.30751725734325</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!W17:W20)</f>
-        <v>0.12480355192364699</v>
+        <v>0.12510746358958363</v>
       </c>
       <c r="G7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W20)</f>
-        <v>4.5832971349303704E-2</v>
+        <v>4.5817250628471216E-2</v>
       </c>
       <c r="H7">
         <f>AVERAGE('Bottle Results'!D17:D20)</f>

--- a/Sorption Experiments/RaFHY_pH5/RaFHY_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH5/RaFHY_pH5_NoScript.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="138">
   <si>
     <t>Parameters</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>CPS-&gt;Bq No background</t>
+  </si>
+  <si>
+    <t>TotAct</t>
   </si>
 </sst>
 </file>
@@ -9206,16 +9209,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9232,19 +9235,22 @@
         <v>128</v>
       </c>
       <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>130</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9264,24 +9270,28 @@
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
         <v>6.8093211868441603</v>
       </c>
-      <c r="F2" t="e">
+      <c r="F2">
+        <f>'Bottle Results'!S3</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="e">
         <f>AVERAGE('Bottle Results'!W2:W4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" t="e">
+      <c r="H2" t="e">
         <f>_xlfn.STDEV.S('Bottle Results'!W2:W4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>AVERAGE('Bottle Results'!D2:D4)</f>
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>_xlfn.STDEV.S('Bottle Results'!D2:D4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -9302,23 +9312,27 @@
         <v>20.80869466222557</v>
       </c>
       <c r="F3">
+        <f>'Bottle Results'!S6</f>
+        <v>2.7062351729187553</v>
+      </c>
+      <c r="G3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
         <v>-0.20166722495183589</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
         <v>0.23067501528090892</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>_xlfn.STDEV.S('Bottle Results'!D5:D7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -9339,23 +9353,27 @@
         <v>19.001302140550514</v>
       </c>
       <c r="F4">
+        <f>'Bottle Results'!S9</f>
+        <v>5.3988024914288308</v>
+      </c>
+      <c r="G4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
         <v>3.0162710475767435E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
         <v>0.10558620455582746</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>_xlfn.STDEV.S('Bottle Results'!D8:D10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -9376,23 +9394,27 @@
         <v>252.37331757908467</v>
       </c>
       <c r="F5">
+        <f>'Bottle Results'!S12</f>
+        <v>27.028182093165853</v>
+      </c>
+      <c r="G5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
         <v>0.25851943601113264</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
         <v>0.28012241079606082</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>_xlfn.STDEV.S('Bottle Results'!D11:D13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -9413,23 +9435,27 @@
         <v>22.653325833680704</v>
       </c>
       <c r="F6">
+        <f>'Bottle Results'!S15</f>
+        <v>53.988024914288303</v>
+      </c>
+      <c r="G6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
         <v>0.10236533765624593</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
         <v>1.2587972538157445E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>_xlfn.STDEV.S('Bottle Results'!D14:D16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -9450,18 +9476,22 @@
         <v>413.30751725734325</v>
       </c>
       <c r="F7">
+        <f>'Bottle Results'!S18</f>
+        <v>270.62351729187554</v>
+      </c>
+      <c r="G7">
         <f>AVERAGE('Bottle Results'!W17:W20)</f>
         <v>0.12510746358958363</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W20)</f>
         <v>4.5817250628471216E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D20)</f>
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>_xlfn.STDEV.S('Bottle Results'!D17:D20)</f>
         <v>0</v>
       </c>

--- a/Sorption Experiments/RaFHY_pH5/RaFHY_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaFHY_pH5/RaFHY_pH5_NoScript.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="136">
   <si>
     <t>Parameters</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>All below detection</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -716,27 +722,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -952,11 +938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239319384"/>
-        <c:axId val="239319776"/>
+        <c:axId val="220048304"/>
+        <c:axId val="220041248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239319384"/>
+        <c:axId val="220048304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,12 +970,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239319776"/>
+        <c:crossAx val="220041248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239319776"/>
+        <c:axId val="220041248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239319384"/>
+        <c:crossAx val="220048304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1252,11 +1238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239320560"/>
-        <c:axId val="239320952"/>
+        <c:axId val="220042424"/>
+        <c:axId val="220043600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239320560"/>
+        <c:axId val="220042424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,12 +1270,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239320952"/>
+        <c:crossAx val="220043600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239320952"/>
+        <c:axId val="220043600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239320560"/>
+        <c:crossAx val="220042424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9029,7 +9015,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
@@ -9158,7 +9144,7 @@
         <v>0.02</v>
       </c>
       <c r="M2">
-        <f>I2/K2</f>
+        <f t="shared" ref="M2:M23" si="0">I2/K2</f>
         <v>2.0757255183746166E-2</v>
       </c>
       <c r="O2">
@@ -9166,11 +9152,11 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>(O2-M2*G2)/E2</f>
+        <f t="shared" ref="Q2:Q23" si="1">(O2-M2*G2)/E2</f>
         <v>-69.190850612487225</v>
       </c>
       <c r="S2" t="e">
-        <f>Q2*E2/O2</f>
+        <f t="shared" ref="S2:S23" si="2">Q2*E2/O2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9214,7 +9200,7 @@
         <v>0.02</v>
       </c>
       <c r="M3">
-        <f>I3/K3</f>
+        <f t="shared" si="0"/>
         <v>1.6140638834855805E-2</v>
       </c>
       <c r="O3">
@@ -9222,11 +9208,11 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>(O3-M3*G3)/E3</f>
+        <f t="shared" si="1"/>
         <v>-53.802129449519349</v>
       </c>
       <c r="S3" t="e">
-        <f>Q3*E3/O3</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9270,7 +9256,7 @@
         <v>0.02</v>
       </c>
       <c r="M4">
-        <f>I4/K4</f>
+        <f t="shared" si="0"/>
         <v>1.5871999521450547E-2</v>
       </c>
       <c r="O4">
@@ -9278,11 +9264,11 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>(O4-M4*G4)/E4</f>
+        <f t="shared" si="1"/>
         <v>-52.906665071501827</v>
       </c>
       <c r="S4" t="e">
-        <f>Q4*E4/O4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9326,7 +9312,7 @@
         <v>0.02</v>
       </c>
       <c r="M5">
-        <f>I5/K5</f>
+        <f t="shared" si="0"/>
         <v>3.4245601944476886E-2</v>
       </c>
       <c r="O5">
@@ -9334,11 +9320,11 @@
         <v>3.7361495765232502</v>
       </c>
       <c r="Q5">
-        <f>(O5-M5*G5)/E5</f>
+        <f t="shared" si="1"/>
         <v>10.386312735852052</v>
       </c>
       <c r="S5">
-        <f>Q5*E5/O5</f>
+        <f t="shared" si="2"/>
         <v>8.3398529875112051E-2</v>
       </c>
     </row>
@@ -9382,7 +9368,7 @@
         <v>0.02</v>
       </c>
       <c r="M6">
-        <f>I6/K6</f>
+        <f t="shared" si="0"/>
         <v>3.6975110030063589E-2</v>
       </c>
       <c r="O6">
@@ -9390,11 +9376,11 @@
         <v>3.7361495765232502</v>
       </c>
       <c r="Q6">
-        <f>(O6-M6*G6)/E6</f>
+        <f t="shared" si="1"/>
         <v>1.2879524505630495</v>
       </c>
       <c r="S6">
-        <f>Q6*E6/O6</f>
+        <f t="shared" si="2"/>
         <v>1.0341816548160632E-2</v>
       </c>
     </row>
@@ -9438,7 +9424,7 @@
         <v>0.02</v>
       </c>
       <c r="M7">
-        <f>I7/K7</f>
+        <f t="shared" si="0"/>
         <v>4.9952710441851032E-2</v>
       </c>
       <c r="O7">
@@ -9446,11 +9432,11 @@
         <v>3.7361495765232502</v>
       </c>
       <c r="Q7">
-        <f>(O7-M7*G7)/E7</f>
+        <f t="shared" si="1"/>
         <v>-41.970715588728439</v>
       </c>
       <c r="S7">
-        <f>Q7*E7/O7</f>
+        <f t="shared" si="2"/>
         <v>-0.33701045471352736</v>
       </c>
     </row>
@@ -9494,7 +9480,7 @@
         <v>0.02</v>
       </c>
       <c r="M8">
-        <f>I8/K8</f>
+        <f t="shared" si="0"/>
         <v>7.5910122288581211E-2</v>
       </c>
       <c r="O8">
@@ -9502,11 +9488,11 @@
         <v>7.4534297107408278</v>
       </c>
       <c r="Q8">
-        <f>(O8-M8*G8)/E8</f>
+        <f t="shared" si="1"/>
         <v>-4.5860839372431057</v>
       </c>
       <c r="S8">
-        <f>Q8*E8/O8</f>
+        <f t="shared" si="2"/>
         <v>-1.8458954260885927E-2</v>
       </c>
     </row>
@@ -9550,7 +9536,7 @@
         <v>0.02</v>
       </c>
       <c r="M9">
-        <f>I9/K9</f>
+        <f t="shared" si="0"/>
         <v>6.2502477873029941E-2</v>
       </c>
       <c r="O9">
@@ -9558,11 +9544,11 @@
         <v>7.4534297107408278</v>
       </c>
       <c r="Q9">
-        <f>(O9-M9*G9)/E9</f>
+        <f t="shared" si="1"/>
         <v>40.106064114594453</v>
       </c>
       <c r="S9">
-        <f>Q9*E9/O9</f>
+        <f t="shared" si="2"/>
         <v>0.16142661434157998</v>
       </c>
     </row>
@@ -9606,7 +9592,7 @@
         <v>0.02</v>
       </c>
       <c r="M10">
-        <f>I10/K10</f>
+        <f t="shared" si="0"/>
         <v>6.2775381302521055E-2</v>
       </c>
       <c r="O10">
@@ -9614,11 +9600,11 @@
         <v>7.4534297107408278</v>
       </c>
       <c r="Q10">
-        <f>(O10-M10*G10)/E10</f>
+        <f t="shared" si="1"/>
         <v>39.196386016290738</v>
       </c>
       <c r="S10">
-        <f>Q10*E10/O10</f>
+        <f t="shared" si="2"/>
         <v>0.15776516665800089</v>
       </c>
     </row>
@@ -9662,7 +9648,7 @@
         <v>0.02</v>
       </c>
       <c r="M11">
-        <f>I11/K11</f>
+        <f t="shared" si="0"/>
         <v>0.31914256861285301</v>
       </c>
       <c r="O11">
@@ -9670,11 +9656,11 @@
         <v>37.314322159468318</v>
       </c>
       <c r="Q11">
-        <f>(O11-M11*G11)/E11</f>
+        <f t="shared" si="1"/>
         <v>180.00217660610065</v>
       </c>
       <c r="S11">
-        <f>Q11*E11/O11</f>
+        <f t="shared" si="2"/>
         <v>0.14471830079359435</v>
       </c>
     </row>
@@ -9718,7 +9704,7 @@
         <v>0.02</v>
       </c>
       <c r="M12">
-        <f>I12/K12</f>
+        <f t="shared" si="0"/>
         <v>0.33039358104243322</v>
       </c>
       <c r="O12">
@@ -9726,11 +9712,11 @@
         <v>37.314322159468318</v>
       </c>
       <c r="Q12">
-        <f>(O12-M12*G12)/E12</f>
+        <f t="shared" si="1"/>
         <v>142.49880184083329</v>
       </c>
       <c r="S12">
-        <f>Q12*E12/O12</f>
+        <f t="shared" si="2"/>
         <v>0.11456630612115376</v>
       </c>
     </row>
@@ -9774,7 +9760,7 @@
         <v>0.02</v>
       </c>
       <c r="M13" s="27">
-        <f>I13/K13</f>
+        <f t="shared" si="0"/>
         <v>0.14874299385253117</v>
       </c>
       <c r="O13" s="27">
@@ -9782,11 +9768,11 @@
         <v>37.314322159468318</v>
       </c>
       <c r="Q13" s="27">
-        <f>(O13-M13*G13)/E13</f>
+        <f t="shared" si="1"/>
         <v>748.00075914050672</v>
       </c>
       <c r="S13" s="27">
-        <f>Q13*E13/O13</f>
+        <f t="shared" si="2"/>
         <v>0.60137827717503267</v>
       </c>
     </row>
@@ -9830,7 +9816,7 @@
         <v>0.02</v>
       </c>
       <c r="M14">
-        <f>I14/K14</f>
+        <f t="shared" si="0"/>
         <v>0.63948002544232285</v>
       </c>
       <c r="O14">
@@ -9838,11 +9824,11 @@
         <v>74.534297107408278</v>
       </c>
       <c r="Q14">
-        <f>(O14-M14*G14)/E14</f>
+        <f t="shared" si="1"/>
         <v>352.87648543919966</v>
       </c>
       <c r="S14">
-        <f>Q14*E14/O14</f>
+        <f t="shared" si="2"/>
         <v>0.14203252695763027</v>
       </c>
     </row>
@@ -9886,7 +9872,7 @@
         <v>0.02</v>
       </c>
       <c r="M15">
-        <f>I15/K15</f>
+        <f t="shared" si="0"/>
         <v>0.64732694662154355</v>
       </c>
       <c r="O15">
@@ -9894,11 +9880,11 @@
         <v>74.534297107408278</v>
       </c>
       <c r="Q15">
-        <f>(O15-M15*G15)/E15</f>
+        <f t="shared" si="1"/>
         <v>326.72008150846403</v>
       </c>
       <c r="S15">
-        <f>Q15*E15/O15</f>
+        <f t="shared" si="2"/>
         <v>0.13150459353134086</v>
       </c>
     </row>
@@ -9942,7 +9928,7 @@
         <v>0.02</v>
       </c>
       <c r="M16">
-        <f>I16/K16</f>
+        <f t="shared" si="0"/>
         <v>0.65769443419814655</v>
       </c>
       <c r="O16">
@@ -9950,11 +9936,11 @@
         <v>74.534297107408278</v>
       </c>
       <c r="Q16">
-        <f>(O16-M16*G16)/E16</f>
+        <f t="shared" si="1"/>
         <v>292.16178958645429</v>
       </c>
       <c r="S16">
-        <f>Q16*E16/O16</f>
+        <f t="shared" si="2"/>
         <v>0.1175949063417471</v>
       </c>
     </row>
@@ -9998,7 +9984,7 @@
         <v>0.02</v>
       </c>
       <c r="M17">
-        <f>I17/K17</f>
+        <f t="shared" si="0"/>
         <v>2.9573398199196892</v>
       </c>
       <c r="O17">
@@ -10006,11 +9992,11 @@
         <v>373.61495765232502</v>
       </c>
       <c r="Q17">
-        <f>(O17-M17*G17)/E17</f>
+        <f t="shared" si="1"/>
         <v>2596.0325220118707</v>
       </c>
       <c r="S17">
-        <f>Q17*E17/O17</f>
+        <f t="shared" si="2"/>
         <v>0.20845250990413997</v>
       </c>
     </row>
@@ -10054,7 +10040,7 @@
         <v>0.02</v>
       </c>
       <c r="M18">
-        <f>I18/K18</f>
+        <f t="shared" si="0"/>
         <v>3.1850862600621466</v>
       </c>
       <c r="O18">
@@ -10062,11 +10048,11 @@
         <v>373.61495765232502</v>
       </c>
       <c r="Q18">
-        <f>(O18-M18*G18)/E18</f>
+        <f t="shared" si="1"/>
         <v>1836.8777215370112</v>
       </c>
       <c r="S18">
-        <f>Q18*E18/O18</f>
+        <f t="shared" si="2"/>
         <v>0.14749498251456691</v>
       </c>
     </row>
@@ -10110,7 +10096,7 @@
         <v>0.02</v>
       </c>
       <c r="M19">
-        <f>I19/K19</f>
+        <f t="shared" si="0"/>
         <v>3.2160295291247523</v>
       </c>
       <c r="O19">
@@ -10118,11 +10104,11 @@
         <v>373.61495765232502</v>
       </c>
       <c r="Q19">
-        <f>(O19-M19*G19)/E19</f>
+        <f t="shared" si="1"/>
         <v>1733.7334913283257</v>
       </c>
       <c r="S19">
-        <f>Q19*E19/O19</f>
+        <f t="shared" si="2"/>
         <v>0.13921285450313955</v>
       </c>
     </row>
@@ -10166,7 +10152,7 @@
         <v>0.02</v>
       </c>
       <c r="M20">
-        <f>I20/K20</f>
+        <f t="shared" si="0"/>
         <v>3.3601528624993016</v>
       </c>
       <c r="O20">
@@ -10174,11 +10160,11 @@
         <v>373.61495765232502</v>
       </c>
       <c r="Q20">
-        <f>(O20-M20*G20)/E20</f>
+        <f t="shared" si="1"/>
         <v>1253.3223800798282</v>
       </c>
       <c r="S20">
-        <f>Q20*E20/O20</f>
+        <f t="shared" si="2"/>
         <v>0.10063748956588613</v>
       </c>
     </row>
@@ -10222,7 +10208,7 @@
         <v>0.02</v>
       </c>
       <c r="M21">
-        <f>I21/K21</f>
+        <f t="shared" si="0"/>
         <v>3.3403266178630568</v>
       </c>
       <c r="O21">
@@ -10230,11 +10216,11 @@
         <v>373.61495765232502</v>
       </c>
       <c r="Q21">
-        <f>(O21-M21*G21)/E21</f>
+        <f t="shared" si="1"/>
         <v>1319.4098622006436</v>
       </c>
       <c r="S21">
-        <f>Q21*E21/O21</f>
+        <f t="shared" si="2"/>
         <v>0.10594408777084727</v>
       </c>
     </row>
@@ -10278,7 +10264,7 @@
         <v>0.02</v>
       </c>
       <c r="M22">
-        <f>I22/K22</f>
+        <f t="shared" si="0"/>
         <v>3.4893584226430301</v>
       </c>
       <c r="O22">
@@ -10286,11 +10272,11 @@
         <v>373.61495765232502</v>
       </c>
       <c r="Q22">
-        <f>(O22-M22*G22)/E22</f>
+        <f t="shared" si="1"/>
         <v>822.63717960073382</v>
       </c>
       <c r="S22">
-        <f>Q22*E22/O22</f>
+        <f t="shared" si="2"/>
         <v>6.6054944756755871E-2</v>
       </c>
     </row>
@@ -10334,7 +10320,7 @@
         <v>0.02</v>
       </c>
       <c r="M23">
-        <f>I23/K23</f>
+        <f t="shared" si="0"/>
         <v>3.4020473292515931</v>
       </c>
       <c r="O23">
@@ -10342,11 +10328,11 @@
         <v>373.61495765232502</v>
       </c>
       <c r="Q23">
-        <f>(O23-M23*G23)/E23</f>
+        <f t="shared" si="1"/>
         <v>1113.6741575721906</v>
       </c>
       <c r="S23">
-        <f>Q23*E23/O23</f>
+        <f t="shared" si="2"/>
         <v>8.9424216142481847E-2</v>
       </c>
     </row>
@@ -10362,15 +10348,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10402,10 +10392,16 @@
         <v>119</v>
       </c>
       <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10446,14 +10442,22 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
         <f>COUNT('Bottle Results'!I2:I4)</f>
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -10494,11 +10498,19 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -10539,11 +10551,19 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -10584,11 +10604,19 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -10629,11 +10657,19 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E16)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I16)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -10674,6 +10710,14 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E17:E20)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E17:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I17:I20)</f>
         <v>4</v>
       </c>
